--- a/requeue_sheet.xlsx
+++ b/requeue_sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="27030" yWindow="3030" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,13 +36,20 @@
       <b val="1"/>
       <sz val="20"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -68,20 +74,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -164,44 +172,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -228,32 +236,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -280,24 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -309,142 +281,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -454,18 +450,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="84.28515625" customWidth="1" min="1" max="1"/>
-    <col width="30.85546875" customWidth="1" min="2" max="2"/>
-    <col width="255" customWidth="1" min="3" max="3"/>
-    <col width="51.28515625" customWidth="1" min="4" max="4"/>
+    <col width="84.35546875" customWidth="1" style="5" min="1" max="1"/>
+    <col width="30.9140625" customWidth="1" style="5" min="2" max="2"/>
+    <col width="255" customWidth="1" style="5" min="3" max="3"/>
+    <col width="51.33203125" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,542 +487,5102 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594488448529000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>44034.78847644676</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-19-1015096-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594488448125000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44035.81228265046</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-19-1006216-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594488008358000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>44040.83156630787</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-19-1030120-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594488249762000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>44052.81481873843</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-19-1016851-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594488248773000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>44054.82557472222</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-19-1011353-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594486394487000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>44199.7780802662</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-20-1036883-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1584485810080000WEB-I-0576C461D30F4523B</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>44211.76000877315</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2002000-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1587072495734000WEB-I-0576C461D30F4523B</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>44242.7664987963</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2003045-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1587507091002000WEB-I-064EB644F23C917C0</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>44245.7681353588</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2003487-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594486292291001UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>44261.77016074074</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-20-1011606-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1584667276547000WEB-I-0576C461D30F4523B</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>44279.70038623842</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2001227-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594493738793000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>44311.83339503472</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PPP-20-1760151-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1593475533873000WEB-I-08FD70C5618F5D0E2</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>44315.80969875</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2008161-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1587255052259000UTIL-I-0FD63CDA85EDE97ED</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>44323.64671960648</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-1031136-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679468780000WEB-I-0FE9704EF84BA617D</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>44329.81788422454</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1786220-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594747481839000WEB-I-0FE9704EF84BA617D</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>44330.8162233912</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000051-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594749517888000WEB-I-08D133910034C881E</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>44330.81668362269</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000051-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594751443833000WEB-I-08D133910034C881E</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>44330.81697771991</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000051-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1592958654325000WEB-I-08FD70C5618F5D0E2</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>44332.8148265625</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2007565-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594901222810000WEB-I-0AC2F6507D797C760</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>44332.83276418981</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000079-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594921177092000WEB-I-0AC2F6507D797C760</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>44332.83405513889</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1047331-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594851910573000WEB-I-08D133910034C881E</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>44333.83630542824</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000161-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594949684906000WEB-I-08D133910034C881E</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>44336.82332464121</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1785846-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594998743560000WEB-I-08D133910034C881E</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>44336.82332688657</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000210-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595010179030000WEB-I-0AACA2A9FCC9A799D</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>44336.82375583333</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000275-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594937847708000WEB-I-08D133910034C881E</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>44338.82340170139</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000235-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595432716044000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>44338.82614648148</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2001194-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595537643821000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>44339.83111912037</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2001576-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595621478392000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>44340.84252631944</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2001754-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595624283540000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>44340.84273407407</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2001535-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594759244557000WEB-I-0FE9704EF84BA617D</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>44343.82299559028</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000087-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595861557419000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>44343.82935792824</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1046597-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596053940967000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>44345.82653650463</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1048713-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596118652302000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>44346.82871317129</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1048169-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596130583455000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>44346.8306940162</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000876-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596139712396000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>44346.83179582176</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2000691-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596207352527000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>44347.85483636574</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1786001-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596232669348000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>44347.86092496528</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2002720-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595429579778000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>44348.86180765046</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000459-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595540758002000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>44348.86315159722</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2001586-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1591143193977000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>44349.79799717593</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-1032859-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596226278804000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>44350.81672775463</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001153-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596494916247000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>44350.82222001157</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1048816-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594491518243001UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>44351.81285707176</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PCP-20-1577876-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594491528340000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>44353.81419174768</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PCP-20-1106976-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596474979514000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>44353.82038961806</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2002856-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596663145949000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>44353.82241443287</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2000576-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596820047526000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>44354.82927322917</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001637-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596822197037000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>44354.82949393518</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2003280-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596830186130000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>44354.83044206019</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001664-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594491485097000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>44355.81766511574</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PCP-20-1001106-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594491072957000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>44358.80785246528</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PCP-20-1001166-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597184688046000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>44358.81898060185</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2010823-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596572993662000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>44359.81724980324</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001146-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596736480678000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>44360.81766042824</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFLP-20-1037833-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597265108981000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>44361.82949689815</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2004082-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597426519356000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>44362.83413076389</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001957-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595971826183000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>44363.82314471064</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2002133-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596761433775000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>44364.81138641204</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2010661-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597770243426000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>44367.8372059375</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002314-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597928781860000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>44367.83940891203</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2004377-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597932488226000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>44367.83985761574</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2005171-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597946919575000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>44367.84147325232</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2005423-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597959841840000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>44367.84382653935</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1785369-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594484334886001UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>44368.81444996528</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL FCP-20-1028111-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595300906621000WEB-I-0C2B5DE40A874CBC4</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>44368.82508553241</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2008582-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594490602495000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>44370.81495829861</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PPP-20-1767212-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597261726580000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>44370.82198144676</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2003068-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597275966655000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>44371.81477144676</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFLP-20-1073268-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597359270588000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>44371.81481979167</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2011002-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598297858259000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>44371.820796875</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2006015-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598466000273000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>44373.82011344907</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001381-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594490338964000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>44375.83002960648</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PPP-20-1767328-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598653703035000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>44375.84899857639</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2003046-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594658660177000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>44378.81839591435</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1028274-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597426949839000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>44378.82202789352</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002128-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594660648770000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>44379.81477186343</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1028965-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594660792800000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>44379.81534104166</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029899-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594661135903000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>44379.81729189815</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029000-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594661364696000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>44379.81829150463</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015658-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594661518574000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>44379.81903576389</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000526-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594661807022000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>44379.82032737268</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015657-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594661835133000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="n">
+        <v>44379.82033243056</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1005992-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594661926573000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>44379.82069993055</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015095-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594662103029000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="n">
+        <v>44379.82143954861</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000456-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594662454532000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="n">
+        <v>44379.82221916666</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1767424-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594663589233000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>44379.82797168982</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1616582-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598310873086000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="n">
+        <v>44379.84054379629</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002811-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598551624933000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>44379.84489165509</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2005342-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1601673057232000WEB-I-018DF0CC2BBE7E5F7</t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="n">
+        <v>44379.86567351852</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2011247-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594664687765000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>44380.79565861111</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029548-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594664744644000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>44380.79584510416</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015564-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594664856530000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>44380.79603015046</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1014144-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594665214537000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>44380.79718723379</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1768059-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597789483126000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>44380.80006302083</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFLP-20-1073763-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599071113037000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="n">
+        <v>44380.80340365741</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003078-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594666908652000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>44381.80756332176</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1001511-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598303595791000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="n">
+        <v>44381.80982907407</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2005610-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594667697388000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>44382.81073993056</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769073-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597785248005000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="n">
+        <v>44382.81358646991</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001908-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598469622209000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>44382.81533251157</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002969-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598630989368000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>44382.8157816088</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002839-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599235455114000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="n">
+        <v>44382.82250392361</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2002284-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594669738715000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>44383.81968886574</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1746845-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594670456787000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="n">
+        <v>44384.81297607639</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030250-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594670644528000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="n">
+        <v>44384.81368631944</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029782-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594671132451000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>44384.81606494213</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769486-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594671647271000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>44384.81957831018</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1746855-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598906383752000WEB-I-07483FF5A2C8A63A7</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="n">
+        <v>44384.82273653935</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003268-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594673932577000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>44386.80667016203</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000664-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594673959389000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="n">
+        <v>44386.80667412037</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000615-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594674518231000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="n">
+        <v>44386.80941796296</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1746227-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594674666511000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="n">
+        <v>44386.80981976852</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1625411-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597933272925000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="n">
+        <v>44386.81102326389</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001943-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599571431074000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="n">
+        <v>44386.81881719908</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2006187-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594674785225000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="n">
+        <v>44387.80051700232</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1028819-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594675230599000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="n">
+        <v>44387.80284783565</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1005708-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599600273966000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="n">
+        <v>44387.81344113426</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003727-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679310544000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="n">
+        <v>44388.81059422454</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016017-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679338759000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="n">
+        <v>44388.81059803241</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015986-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679429080000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="n">
+        <v>44388.81096524306</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016076-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679457896000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>44388.81096984954</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015987-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679661902000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>44388.81134131944</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769633-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679783715000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>44388.8119509375</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1768878-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594679812717000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>44388.81195509259</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769081-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594680344086000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>44388.81499180556</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1585762-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599595165241000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>44388.8212287963</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003744-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594683172782000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>44389.80650894676</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029937-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594683373907000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>44389.80743341435</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030723-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594684133129000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>44389.81159586806</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769718-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599084836713000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="n">
+        <v>44389.81748986111</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002523-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599172879040000WEB-I-0473FF0DB0AB588F6</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="n">
+        <v>44389.81844114584</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2007669-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599740327673000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="n">
+        <v>44389.82122925926</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2008068-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599839452048000WEB-I-018DF0CC2BBE7E5F7</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="n">
+        <v>44389.82338546297</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004033-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594687663445000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="n">
+        <v>44390.81100225695</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029515-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594687692462000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="n">
+        <v>44390.81100605324</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029552-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594687842053000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="n">
+        <v>44390.81137556713</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029573-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594687961416000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>44390.81195466435</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015587-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594688374998000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>44390.81349037037</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000388-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594688497458000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="n">
+        <v>44390.81367614583</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1588560-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594688719912000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="n">
+        <v>44390.81490571759</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769742-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594689009504000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>44390.8168565625</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1598843-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594689048300000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="n">
+        <v>44390.81686033565</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1768008-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599747520406000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="n">
+        <v>44390.82636339121</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2005140-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594774959923000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="n">
+        <v>44391.81133395834</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030952-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594775188938000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="n">
+        <v>44391.81188148148</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029804-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594775993925000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="n">
+        <v>44391.81617712963</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1768022-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594776601944000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="n">
+        <v>44391.81883651621</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1632291-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594859701443000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>44392.80359990741</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030838-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594859823073000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>44392.80419006944</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030468-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594859977642000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="n">
+        <v>44392.80493310185</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029313-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594860222689000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="n">
+        <v>44392.80585413195</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000519-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594860338962000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="n">
+        <v>44392.80641329861</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016313-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594860739778000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>44392.80832513889</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1768277-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594860861287000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="n">
+        <v>44392.80889145833</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1001605-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599239367061000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="n">
+        <v>44392.81343420139</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003631-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600110336363000WEB-I-08D882C6B0E2D85A1</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="n">
+        <v>44392.8174071875</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1786138-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594947916275000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="n">
+        <v>44393.8166021875</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1006202-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594948133368000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="n">
+        <v>44393.81752738426</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1005954-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594948161650000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="n">
+        <v>44393.81753108796</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1005941-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594949222587000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="n">
+        <v>44393.82167581018</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1576553-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599956380384000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>44393.83488596065</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003399-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600132860008000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="n">
+        <v>44393.8363197338</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003399-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600188111517000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="n">
+        <v>44393.83703076389</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003399-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600199969405000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="n">
+        <v>44393.84001028935</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003027-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600207107115000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>44393.84171722223</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003399-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600232519210000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="n">
+        <v>44393.843850625</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003399-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600288665026000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="n">
+        <v>44393.84385292824</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004427-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595033063278000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="n">
+        <v>44394.80801876157</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030407-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595033125189000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="n">
+        <v>44394.8081977662</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030549-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595033276115000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="n">
+        <v>44394.80871083333</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1014981-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595033369126000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>44394.80888877315</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016020-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595033458698000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>44394.80924243056</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000729-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600108504739000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="n">
+        <v>44394.81775575232</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004174-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600198360162000WEB-I-08D882C6B0E2D85A1</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="n">
+        <v>44394.81840172454</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004298-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595119886953000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="n">
+        <v>44395.80974834491</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1029143-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595120083096000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="n">
+        <v>44395.80975280092</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1014881-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595120113728000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B179" s="3" t="n">
+        <v>44395.80975657408</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016312-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595120517219000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="n">
+        <v>44395.81136831018</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016330-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595120913437000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="n">
+        <v>44395.8136890625</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769808-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1594490341704000UTIL-I-06B572AE353C797B6</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="n">
+        <v>44396.54727386574</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK-RL-SHELL PCP-20-1131739-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595207027217000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B183" s="3" t="n">
+        <v>44396.81346837963</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015689-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1597083565809000WEB-I-0B764F8ACE682FCEF</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="n">
+        <v>44396.81787635417</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2000688-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599587618953000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="n">
+        <v>44396.82032155093</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003374-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600440780166000WEB-I-018DF0CC2BBE7E5F7</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="n">
+        <v>44396.82707153935</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2002016-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600468703839000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="n">
+        <v>44396.83081430555</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2013359-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600472749651000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B188" s="3" t="n">
+        <v>44396.83149466435</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2009668-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595293553533000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="n">
+        <v>44397.81180325231</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030565-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595294285748000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="n">
+        <v>44397.81542501158</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1014742-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595295468674000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B191" s="3" t="n">
+        <v>44397.82117134259</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1628009-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595295841641000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B192" s="3" t="n">
+        <v>44397.82308770833</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1628053-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599050736516000WEB-I-0DE52FCE2E51F4B14</t>
+        </is>
+      </c>
+      <c r="B193" s="3" t="n">
+        <v>44397.82505846065</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2004252-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595381189659000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B194" s="3" t="n">
         <v>44398.81920652778</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1769155-01</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="195">
+      <c r="A195" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595381474224000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B195" s="3" t="n">
         <v>44398.82030322916</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1155320-04</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="196">
+      <c r="A196" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595381815525000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B196" s="3" t="n">
         <v>44398.82218826389</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1631518-03</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+    <row r="197">
+      <c r="A197" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1599531313347000WEB-I-018DF0CC2BBE7E5F7</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B197" s="3" t="n">
         <v>44398.82683814815</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-2003402-00</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+    <row r="198">
+      <c r="A198" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1599594436720000WEB-I-0BA2B819288501DB1</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B198" s="3" t="n">
         <v>44399.72801971064</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-2007987-00</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="199">
+      <c r="A199" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1594668688373000UTIL-I-06B572AE353C797B6</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B199" s="3" t="n">
         <v>44399.72802211806</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1015911-02</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="200">
+      <c r="A200" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1594668928139000UTIL-I-06B572AE353C797B6</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B200" s="3" t="n">
         <v>44399.72802585648</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1015943-02</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="201">
+      <c r="A201" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595464709452000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B201" s="3" t="n">
         <v>44399.80510040509</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1031334-01</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="202">
+      <c r="A202" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595464998940000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B202" s="3" t="n">
         <v>44399.80637458334</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1031022-01</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="203">
+      <c r="A203" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595550513052000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B203" s="3" t="n">
         <v>44400.80078645833</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1014587-02</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="204">
+      <c r="A204" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595550808205000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B204" s="3" t="n">
         <v>44400.80132251157</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1769602-01</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+    <row r="205">
+      <c r="A205" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1600130878071000WEB-I-04AEA143EBB105097</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B205" s="3" t="n">
         <v>44400.80798116898</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-2003746-00</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+    <row r="206">
+      <c r="A206" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1600809014674000WEB-I-0BA2B819288501DB1</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B206" s="3" t="n">
         <v>44400.81826533565</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-2004735-00</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="207">
+      <c r="A207" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595636301750000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B207" s="3" t="n">
         <v>44401.80198590278</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1015783-02</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+    <row r="208">
+      <c r="A208" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1599689761853000WEB-I-08D882C6B0E2D85A1</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B208" s="3" t="n">
         <v>44401.81165833333</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFLP-20-1084183-00</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+    <row r="209">
+      <c r="A209" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1600812947706000WEB-I-0986BEFB54A6F84A0</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B209" s="3" t="n">
         <v>44401.81712416666</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-2008243-00</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+    <row r="210">
+      <c r="A210" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595723258577000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B210" s="3" t="n">
         <v>44402.81067935185</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1006047-03</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="211">
+      <c r="A211" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595723361712000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B211" s="3" t="n">
         <v>44402.81180090277</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1770276-01</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="212">
+      <c r="A212" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595810049442000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B212" s="3" t="n">
         <v>44403.81319641204</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1014557-02</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="213">
+      <c r="A213" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595810291324000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B213" s="3" t="n">
         <v>44403.81553219907</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1769799-01</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="214">
+      <c r="A214" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595810690722000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B214" s="3" t="n">
         <v>44403.81807465278</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-1001945-05</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+    <row r="215">
+      <c r="A215" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1598550594023000WEB-I-0B764F8ACE682FCEF</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B215" s="3" t="n">
         <v>44403.81928842593</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-2003056-00</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+    <row r="216">
+      <c r="A216" s="8" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1601057960502000WEB-I-018DF0CC2BBE7E5F7</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B216" s="3" t="n">
         <v>44403.83208199074</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPEKP-20-2006541-00</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+    <row r="217">
+      <c r="A217" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595896419844000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B217" s="3" t="n">
         <v>44404.80771097222</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1006604-03</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+    <row r="218">
+      <c r="A218" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595896464497000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B218" s="3" t="n">
         <v>44404.80790739584</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1030244-01</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+    <row r="219">
+      <c r="A219" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595896532662000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B219" s="3" t="n">
         <v>44404.80921826389</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1031588-01</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+    <row r="220">
+      <c r="A220" s="7" t="inlineStr">
         <is>
           <t>SYSTEM-QUEUE-DEFAULTENTRY 1595896808600000UTIL-I-019E02D02D9AD0E11</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B220" s="3" t="n">
         <v>44404.81297420139</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
         <is>
           <t>PA-INS-PAS-WORK PPFCP-20-1016016-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595984112029000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>44405.81618880787</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030851-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595984126242000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>44405.81619262732</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1031590-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595984261545000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>44405.81719034722</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1006675-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595984410834000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="n">
+        <v>44405.81884277778</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016194-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595984425772000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="n">
+        <v>44405.81884652778</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015448-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1595985241357000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="n">
+        <v>44405.82418118056</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1604829-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1598556666749000WEB-I-0B950A0958DE9BAA1</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="n">
+        <v>44405.82813018518</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2000686-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1599858787633000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="n">
+        <v>44405.82866859953</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004102-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600892469427000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="n">
+        <v>44405.82981325231</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003810-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1601343652390000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="n">
+        <v>44406.82505618055</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPHUP-20-2013850-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596155175293000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="n">
+        <v>44407.80702503472</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1768566-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1601300893562000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="n">
+        <v>44407.8169737963</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2001804-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242211254000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="n">
+        <v>44408.81154167824</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1031060-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242311352000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="n">
+        <v>44408.81246643519</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1031376-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242414765000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B235" s="3" t="n">
+        <v>44408.81318855324</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030709-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242473211000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="n">
+        <v>44408.81355865741</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1014963-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242486712000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="n">
+        <v>44408.81356236111</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015728-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242528097000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B238" s="3" t="n">
+        <v>44408.81373680555</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1015953-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596242627630000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="n">
+        <v>44408.81444560185</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1000614-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600785064064000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B240" s="3" t="n">
+        <v>44408.83040556713</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004753-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600975928395000WEB-I-0BA2B819288501DB1</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>44408.83315908565</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2010393-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1601044357624000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="n">
+        <v>44408.83351883102</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2005087-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1601498644223000WEB-I-0D41D366BA2CF7D5E</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="n">
+        <v>44408.8432803125</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2003638-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596329046370000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>44409.81789665509</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1030007-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596329274024000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="n">
+        <v>44409.81883722222</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1031762-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596329518498000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>44409.82080530093</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1031547-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596329646435000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>44409.82226303241</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1031117-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596329820282000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>44409.82329686343</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1027641-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596330111612000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="n">
+        <v>44409.82562417824</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1016672-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596330595753000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B250" s="3" t="n">
+        <v>44409.82957158565</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-1006144-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596330908380000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="n">
+        <v>44409.83151966435</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1770660-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596331145205000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="n">
+        <v>44409.8333524074</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1769723-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="7" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1596331949261000UTIL-I-019E02D02D9AD0E11</t>
+        </is>
+      </c>
+      <c r="B253" s="3" t="n">
+        <v>44409.83841820602</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-1001767-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1600446578199000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B254" s="3" t="n">
+        <v>44409.84807803241</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004256-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1601042970598000WEB-I-04AEA143EBB105097</t>
+        </is>
+      </c>
+      <c r="B255" s="3" t="n">
+        <v>44409.85295940972</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPFCP-20-2004267-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="8" t="inlineStr">
+        <is>
+          <t>SYSTEM-QUEUE-DEFAULTENTRY 1602716194334000WEB-I-0986BEFB54A6F84A0</t>
+        </is>
+      </c>
+      <c r="B256" s="3" t="n">
+        <v>44409.86920427084</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Unable to open an instance using the given inputs: PA-Data-Location !</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>PA-INS-PAS-WORK PPEKP-20-2011464-00</t>
         </is>
       </c>
     </row>
@@ -1050,8 +5606,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>BrokenQueueReport</t>
         </is>
@@ -1067,7 +5623,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Generated on: Jul 28, 2021 1:00:03 PM</t>
+          <t>Generated on: Aug 2, 2021 12:22:35 PM</t>
         </is>
       </c>
     </row>
@@ -1081,7 +5637,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of results: 683</t>
+          <t>Number of results: 738</t>
         </is>
       </c>
     </row>
